--- a/result.XLSX
+++ b/result.XLSX
@@ -9,7 +9,10 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="filter" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="analyze_word" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="analyze_word6" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="analyze_word4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="analyze_word2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="analyze_word" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -599,4 +602,448 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>网络营销-6</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>金-1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>蛛-1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>教育-1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>师-1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>软件-1</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>计划-1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>专业-1</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>公司-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>金蛛教育网络营销</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>金蛛教育网络营销</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金蛛教育网络营销</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>金蛛教育网络营销</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>网络营销师</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>网络营销软件</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>网络营销计划</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>网络营销专业</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>网络营销公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>网络营销师</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>网络营销软件</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>网络营销计划</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>网络营销专业</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>网络营销公司</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>网络营销-6</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>金-1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>蛛-1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>教育-1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>师-1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>软件-1</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>计划-1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>专业-1</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>公司-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>金蛛教育网络营销</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>金蛛教育网络营销</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金蛛教育网络营销</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>金蛛教育网络营销</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>网络营销师</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>网络营销软件</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>网络营销计划</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>网络营销专业</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>网络营销公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>网络营销师</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>网络营销软件</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>网络营销计划</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>网络营销专业</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>网络营销公司</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>网络营销-6</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>金-1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>蛛-1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>教育-1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>师-1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>软件-1</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>计划-1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>专业-1</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>公司-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>金蛛教育网络营销</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>金蛛教育网络营销</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金蛛教育网络营销</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>金蛛教育网络营销</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>网络营销师</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>网络营销软件</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>网络营销计划</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>网络营销专业</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>网络营销公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>网络营销师</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>网络营销软件</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>网络营销计划</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>网络营销专业</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>网络营销公司</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>